--- a/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/WAW -2022 - KW list/WAW -2022 - KW list.xlsx
+++ b/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/WAW -2022 - KW list/WAW -2022 - KW list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 21th Mar.- 25th March 2022\WAW -2022 - KW list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' WAW Project'!$A$2:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -840,8 +840,8 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75"/>
